--- a/public/assets/docs/Bonos.xlsx
+++ b/public/assets/docs/Bonos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GSI PROGRAMMER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\gematechReports\public\assets\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1B50A4-A37F-4489-B4B2-2B69FE0BB807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F762B4C-3AE7-490E-8200-E1A13AD17A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A794ECA4-F337-4262-802D-1BF59311240D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A794ECA4-F337-4262-802D-1BF59311240D}"/>
   </bookViews>
   <sheets>
     <sheet name="REPORTE DE HORAS EXTRAS" sheetId="4" r:id="rId1"/>
@@ -23,20 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>FECHA</t>
   </si>
@@ -62,12 +54,6 @@
     <t>NOMBRE Y APELLIDO COMPLETO</t>
   </si>
   <si>
-    <t>NOMBRE DE QUIEN AUTORIZA</t>
-  </si>
-  <si>
-    <t>VB</t>
-  </si>
-  <si>
     <t xml:space="preserve"> FORMATO REPORTE  DE BONOS</t>
   </si>
   <si>
@@ -78,6 +64,9 @@
   </si>
   <si>
     <t>CLIENTE</t>
+  </si>
+  <si>
+    <t>NOMBRE DE QUIEN APRUEBA</t>
   </si>
 </sst>
 </file>
@@ -322,7 +311,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -454,6 +443,9 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -480,15 +472,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -497,11 +480,8 @@
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="6">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -510,21 +490,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C6500"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -555,23 +525,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -958,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF156300-F475-46DF-95AE-CA8CC3E255FD}">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,7 +925,7 @@
     <col min="6" max="6" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -991,52 +944,52 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="49"/>
-      <c r="D3" s="50" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="60" t="s">
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="49" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="49"/>
-      <c r="D4" s="52" t="s">
+      <c r="C4" s="50"/>
+      <c r="D4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="60" t="s">
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="49" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="49"/>
-      <c r="D5" s="54" t="s">
-        <v>10</v>
+      <c r="C5" s="50"/>
+      <c r="D5" s="55" t="s">
+        <v>8</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="60" t="s">
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="49" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="49"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="60" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="49" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1049,7 +1002,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="11" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="C8" s="48" t="s">
         <v>0</v>
       </c>
@@ -1057,19 +1010,19 @@
         <v>7</v>
       </c>
       <c r="E8" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="H8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="48" t="s">
-        <v>8</v>
-      </c>
       <c r="I8" s="48" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="14"/>
@@ -1099,11 +1052,6 @@
       <c r="C11" s="41"/>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
       <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1113,7 +1061,7 @@
       <c r="F12" s="26"/>
       <c r="G12" s="27"/>
       <c r="H12" s="28"/>
-      <c r="I12" s="29"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="16"/>
       <c r="K12" s="17"/>
     </row>
@@ -1641,47 +1589,32 @@
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="D5:H6"/>
   </mergeCells>
-  <conditionalFormatting sqref="C15 C17 C19:C42 C9:C13">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+  <conditionalFormatting sqref="C9:C42">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>$B$11</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43:C58">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="sábado">
-      <formula>NOT(ISERROR(SEARCH("sábado",C43)))</formula>
+  <conditionalFormatting sqref="C9:C57">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="domingo,">
+      <formula>NOT(ISERROR(SEARCH("domingo,",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="domingo">
-      <formula>NOT(ISERROR(SEARCH("domingo",C43)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:C58">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="domingo">
+      <formula>NOT(ISERROR(SEARCH("domingo",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C57">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>$B$14</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15 C17 C19:C58 C9:C13">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="domingo">
-      <formula>NOT(ISERROR(SEARCH("domingo",C9)))</formula>
+  <conditionalFormatting sqref="C43:C58">
+    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="sábado">
+      <formula>NOT(ISERROR(SEARCH("sábado",C43)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15 C17 C19:C57 C9:C13">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="domingo,">
-      <formula>NOT(ISERROR(SEARCH("domingo,",C9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14 C16 C18">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>$B$11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14 C16 C18">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="domingo">
-      <formula>NOT(ISERROR(SEARCH("domingo",C14)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14 C16 C18">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="domingo,">
-      <formula>NOT(ISERROR(SEARCH("domingo,",C14)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="9" operator="containsText" text="domingo">
+      <formula>NOT(ISERROR(SEARCH("domingo",C43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
